--- a/GST-.xlsx
+++ b/GST-.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">                                     </t>
   </si>
@@ -56,16 +56,10 @@
     <t>HSN/SAC</t>
   </si>
   <si>
-    <t xml:space="preserve">  MRP/       Marginal</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Rate</t>
-  </si>
-  <si>
-    <t>Per</t>
   </si>
   <si>
     <t>Disc. %</t>
@@ -102,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MRP   </t>
   </si>
 </sst>
 </file>
@@ -688,10 +685,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,15 +697,14 @@
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -722,9 +718,8 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -739,10 +734,9 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -753,10 +747,9 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -767,12 +760,11 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>3</v>
@@ -783,271 +775,328 @@
         <v>4</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <f ca="1">RANDBETWEEN(990000, 999999)</f>
-        <v>993210</v>
+        <v>992966</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="9">
-        <v>2</v>
+        <v>9500</v>
       </c>
       <c r="I6" s="9">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9">
+      <c r="K6" s="9">
         <f>H6*I6</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <f ca="1">RANDBETWEEN(990000, 999999)</f>
-        <v>992868</v>
+        <v>999309</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
       <c r="H7" s="9">
-        <v>1</v>
+        <v>14500</v>
       </c>
       <c r="I7" s="9">
-        <v>5000</v>
+        <v>8990</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9">
+      <c r="K7" s="9">
         <f>H7*I7</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>130355000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <f t="shared" ref="E8:E15" ca="1" si="0">RANDBETWEEN(990000, 999999)</f>
+        <v>992641</v>
+      </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
+      <c r="G8" s="9">
+        <v>1</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9">
+        <v>30</v>
+      </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="9">
+        <f>H8*I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>997966</v>
+      </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9">
+        <v>30</v>
+      </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="9">
+        <f>H9*I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>997840</v>
+      </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>125</v>
+      </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="9">
+        <f>H10*I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>990272</v>
+      </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <v>125</v>
+      </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="9">
+        <f>H11*I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>999473</v>
+      </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <v>150</v>
+      </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="9">
+        <f>H12*I12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>994840</v>
+      </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9"/>
+      <c r="G13" s="9">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <v>450</v>
+      </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="9">
+        <f>H13*I13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>997678</v>
+      </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <v>150</v>
+      </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
-        <f>L19*2.5/100</f>
-        <v>375</v>
-      </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="9">
+        <f>H14*I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>992050</v>
+      </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <v>3</v>
+      </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <v>450</v>
+      </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9">
-        <f>L19*2.5/100</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="9">
+        <f>H15*I15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="9">
+        <f>K22*2.5/100</f>
+        <v>6465125</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="9">
+        <f>K22*2.5/100</f>
+        <v>6465125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10" t="str">
-        <f>SUM(H6:H15) &amp; " Unt"</f>
-        <v>3 Unt</v>
-      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="9" t="str">
-        <f>"₹       "&amp;SUM(L6:L7)</f>
-        <v>₹       15000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1055,51 +1104,55 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="str">
+        <f>SUM(G6:G18) &amp; " Unt"</f>
+        <v>14 Unt</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="str">
+        <f>"₹       "&amp;SUM(K6:K15)</f>
+        <v>₹       258605000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1110,10 +1163,9 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1124,10 +1176,9 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1138,10 +1189,9 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1152,10 +1202,9 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1166,26 +1215,63 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
